--- a/전례/예산집행보고서/예산집행보고서2017-07.xlsx
+++ b/전례/예산집행보고서/예산집행보고서2017-07.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\전례단\2017 보고서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git_test\전례\예산집행보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>금액</t>
   </si>
@@ -222,15 +222,24 @@
     <t>07월09일,16일,23일,30일</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>초등부 물놀이 아이스크림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -506,7 +515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,6 +609,9 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,6 +797,15 @@
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1086,7 +1107,7 @@
   <dimension ref="A2:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="C17" sqref="C17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1112,471 +1133,473 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="24" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="42"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
     </row>
     <row r="4" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
     </row>
     <row r="5" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="45" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
     </row>
     <row r="6" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
     </row>
     <row r="7" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="49"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="37" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="49"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
     </row>
     <row r="9" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="37" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="49"/>
     </row>
     <row r="10" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="49"/>
     </row>
     <row r="11" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="37" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="49"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="50" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53" t="s">
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="45" t="s">
+      <c r="H12" s="49"/>
+      <c r="I12" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="58" t="s">
+      <c r="B13" s="55"/>
+      <c r="C13" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="56" t="s">
+      <c r="M13" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="66" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="65" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="43" t="s">
+      <c r="M17" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
     </row>
     <row r="18" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="64"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="5"/>
     </row>
     <row r="19" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
     <row r="20" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="80">
         <f>K30</f>
-        <v>226600</v>
-      </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
+        <v>255200</v>
+      </c>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
       <c r="J20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="71">
+      <c r="K20" s="72">
         <f>C20-K21</f>
-        <v>58600</v>
-      </c>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="73"/>
+        <v>87200</v>
+      </c>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="74"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="21.75" customHeight="1">
-      <c r="A21" s="54"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
       <c r="J21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="71">
+      <c r="K21" s="72">
         <v>168000</v>
       </c>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="74"/>
     </row>
     <row r="22" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="55"/>
+      <c r="B22" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="53" t="s">
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49"/>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1584,72 +1607,72 @@
         <v>0</v>
       </c>
       <c r="L22" s="3"/>
-      <c r="M22" s="43" t="s">
+      <c r="M22" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
     </row>
     <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="87" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="88">
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89">
         <f>K23/J23</f>
         <v>37166.666666666664</v>
       </c>
-      <c r="H23" s="89"/>
+      <c r="H23" s="90"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="86">
+      <c r="J23" s="87">
         <v>6</v>
       </c>
-      <c r="K23" s="84">
+      <c r="K23" s="85">
         <v>223000</v>
       </c>
       <c r="L23" s="3"/>
-      <c r="M23" s="92" t="s">
+      <c r="M23" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="91"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="92"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="85"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="86"/>
       <c r="L24" s="12"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
     </row>
     <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="81" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="34">
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="35">
         <f>K25/J25</f>
         <v>900</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="13">
         <v>4</v>
       </c>
@@ -1657,103 +1680,114 @@
         <v>3600</v>
       </c>
       <c r="L25" s="12"/>
-      <c r="M25" s="74" t="s">
+      <c r="M25" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
     </row>
     <row r="26" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="94">
+        <f>K26/J26</f>
+        <v>1300</v>
+      </c>
+      <c r="H26" s="95"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="13">
+        <v>22</v>
+      </c>
+      <c r="K26" s="31">
+        <v>28600</v>
+      </c>
       <c r="L26" s="12"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
+      <c r="M26" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
     </row>
     <row r="27" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="12"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
       <c r="Q27" s="14"/>
     </row>
     <row r="28" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="12"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
     </row>
     <row r="29" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="12"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
       <c r="Q29" s="15"/>
     </row>
     <row r="30" spans="1:18" ht="21" customHeight="1">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="53" t="s">
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
       <c r="J30" s="16"/>
       <c r="K30" s="30">
         <f>SUM(K23:L29)</f>
-        <v>226600</v>
+        <v>255200</v>
       </c>
       <c r="L30" s="12"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
       <c r="Q30" s="15"/>
     </row>
     <row r="31" spans="1:18" ht="24" customHeight="1">
@@ -1765,19 +1799,19 @@
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="67" t="s">
+      <c r="G31" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="H31" s="68"/>
-      <c r="I31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="70"/>
       <c r="J31" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K31" s="22"/>
       <c r="L31" s="12"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="49"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="50"/>
       <c r="Q31" s="15"/>
     </row>
     <row r="32" spans="1:18" ht="16.5" customHeight="1">

--- a/전례/예산집행보고서/예산집행보고서2017-07.xlsx
+++ b/전례/예산집행보고서/예산집행보고서2017-07.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git_test\전례\예산집행보고서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\전례단\2017 보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -235,11 +235,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -515,7 +514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -609,9 +608,81 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,6 +692,81 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,12 +774,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -648,163 +788,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1107,7 +1100,7 @@
   <dimension ref="A2:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:K17"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1133,473 +1126,473 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="24" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="43"/>
+      <c r="I2" s="90"/>
       <c r="J2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43" t="s">
+      <c r="L2" s="90"/>
+      <c r="M2" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
     </row>
     <row r="3" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
     </row>
     <row r="6" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="38" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="50"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="67"/>
       <c r="H7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
     </row>
     <row r="8" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="38" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="50"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="67"/>
       <c r="H8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
     </row>
     <row r="9" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="38" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="49"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
     </row>
     <row r="10" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="40"/>
     </row>
     <row r="11" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="38" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="49"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="40"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="51" t="s">
+      <c r="B12" s="64"/>
+      <c r="C12" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54" t="s">
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="46" t="s">
+      <c r="H12" s="40"/>
+      <c r="I12" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="59" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="57" t="s">
+      <c r="M13" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="67" t="s">
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="66" t="s">
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="67" t="s">
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="44" t="s">
+      <c r="M17" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
     </row>
     <row r="18" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="65"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="78"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="5"/>
     </row>
     <row r="19" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
     <row r="20" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="80">
+      <c r="C20" s="36">
         <f>K30</f>
         <v>255200</v>
       </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="72">
+      <c r="K20" s="33">
         <f>C20-K21</f>
         <v>87200</v>
       </c>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="74"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="35"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="21.75" customHeight="1">
-      <c r="A21" s="55"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
       <c r="J21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="72">
+      <c r="K21" s="33">
         <v>168000</v>
       </c>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="74"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="35"/>
     </row>
     <row r="22" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55" t="s">
+      <c r="A22" s="63"/>
+      <c r="B22" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="54" t="s">
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="49"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1607,72 +1600,72 @@
         <v>0</v>
       </c>
       <c r="L22" s="3"/>
-      <c r="M22" s="44" t="s">
+      <c r="M22" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
     </row>
     <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="88" t="s">
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89">
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51">
         <f>K23/J23</f>
         <v>37166.666666666664</v>
       </c>
-      <c r="H23" s="90"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="87">
+      <c r="J23" s="49">
         <v>6</v>
       </c>
-      <c r="K23" s="85">
+      <c r="K23" s="47">
         <v>223000</v>
       </c>
       <c r="L23" s="3"/>
-      <c r="M23" s="93" t="s">
+      <c r="M23" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="92"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="54"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="86"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="48"/>
       <c r="L24" s="12"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
     </row>
     <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="82" t="s">
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="35">
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="84">
         <f>K25/J25</f>
         <v>900</v>
       </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="37"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="86"/>
       <c r="J25" s="13">
         <v>4</v>
       </c>
@@ -1680,114 +1673,114 @@
         <v>3600</v>
       </c>
       <c r="L25" s="12"/>
-      <c r="M25" s="75" t="s">
+      <c r="M25" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
     </row>
     <row r="26" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="76" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="94">
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="84">
         <f>K26/J26</f>
         <v>1300</v>
       </c>
-      <c r="H26" s="95"/>
-      <c r="I26" s="96"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="86"/>
       <c r="J26" s="13">
         <v>22</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="30">
         <v>28600</v>
       </c>
       <c r="L26" s="12"/>
-      <c r="M26" s="75" t="s">
+      <c r="M26" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
     </row>
     <row r="27" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="34"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="12"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
       <c r="Q27" s="14"/>
     </row>
     <row r="28" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="34"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="12"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
     </row>
     <row r="29" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="34"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="12"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
       <c r="Q29" s="15"/>
     </row>
     <row r="30" spans="1:18" ht="21" customHeight="1">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="54" t="s">
+      <c r="A30" s="63"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="94"/>
       <c r="J30" s="16"/>
       <c r="K30" s="30">
         <f>SUM(K23:L29)</f>
         <v>255200</v>
       </c>
       <c r="L30" s="12"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
       <c r="Q30" s="15"/>
     </row>
     <row r="31" spans="1:18" ht="24" customHeight="1">
@@ -1799,19 +1792,19 @@
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="68" t="s">
+      <c r="G31" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H31" s="69"/>
-      <c r="I31" s="70"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="61"/>
       <c r="J31" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K31" s="22"/>
       <c r="L31" s="12"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="50"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="67"/>
       <c r="Q31" s="15"/>
     </row>
     <row r="32" spans="1:18" ht="16.5" customHeight="1">
@@ -1866,6 +1859,69 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="A2:F3"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="M3:O4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:O9"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C11:O11"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="A13:B19"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O19"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="M28:O28"/>
     <mergeCell ref="M29:O29"/>
@@ -1882,69 +1938,6 @@
     <mergeCell ref="M23:O24"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="A20:A30"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A13:B19"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O19"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C11:O11"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:O9"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="M3:O4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="A2:F3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
